--- a/data/pca/factorExposure/factorExposure_2011-09-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02170800918685939</v>
+        <v>0.01653251245610541</v>
       </c>
       <c r="C2">
-        <v>-0.0171529525675134</v>
+        <v>-0.01076157041839388</v>
       </c>
       <c r="D2">
-        <v>0.04431025915591061</v>
+        <v>0.03412561319968943</v>
       </c>
       <c r="E2">
-        <v>0.06661681524798566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03651271237718567</v>
+      </c>
+      <c r="F2">
+        <v>-0.02485508251957245</v>
+      </c>
+      <c r="G2">
+        <v>0.004866656907236594</v>
+      </c>
+      <c r="H2">
+        <v>-0.01212327745933904</v>
+      </c>
+      <c r="I2">
+        <v>0.007861312974766133</v>
+      </c>
+      <c r="J2">
+        <v>0.06261020836802499</v>
+      </c>
+      <c r="K2">
+        <v>0.07020226969313766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.08408418476729802</v>
+        <v>0.09583375250771192</v>
       </c>
       <c r="C4">
-        <v>-0.05068485911001628</v>
+        <v>-0.05210915309372591</v>
       </c>
       <c r="D4">
-        <v>0.050908511211716</v>
+        <v>0.03295942575855167</v>
       </c>
       <c r="E4">
-        <v>0.01592073921567977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02673537089950385</v>
+      </c>
+      <c r="F4">
+        <v>-0.07480769522280234</v>
+      </c>
+      <c r="G4">
+        <v>0.03050497840149855</v>
+      </c>
+      <c r="H4">
+        <v>0.003458567999842216</v>
+      </c>
+      <c r="I4">
+        <v>-0.0675833124515991</v>
+      </c>
+      <c r="J4">
+        <v>-0.03587363232990688</v>
+      </c>
+      <c r="K4">
+        <v>-0.04928560659373017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.120142510337946</v>
+        <v>0.1305762928905924</v>
       </c>
       <c r="C6">
-        <v>-0.0007067882164593527</v>
+        <v>-0.006137010780934002</v>
       </c>
       <c r="D6">
-        <v>0.04514536010687659</v>
+        <v>0.06475624011817954</v>
       </c>
       <c r="E6">
-        <v>0.07127654226780497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02879981787997149</v>
+      </c>
+      <c r="F6">
+        <v>-0.03075162708852616</v>
+      </c>
+      <c r="G6">
+        <v>0.05395076707942193</v>
+      </c>
+      <c r="H6">
+        <v>0.1896863152761309</v>
+      </c>
+      <c r="I6">
+        <v>0.05959299708564725</v>
+      </c>
+      <c r="J6">
+        <v>-0.4483449378993092</v>
+      </c>
+      <c r="K6">
+        <v>-0.02631734440185277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07415597484611088</v>
+        <v>0.07204389170735867</v>
       </c>
       <c r="C7">
-        <v>-0.02585614282332711</v>
+        <v>-0.05429529482828667</v>
       </c>
       <c r="D7">
-        <v>0.05769728913696925</v>
+        <v>0.04726637287913558</v>
       </c>
       <c r="E7">
-        <v>0.05512826345173207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.03418217586108494</v>
+      </c>
+      <c r="F7">
+        <v>-0.03519539026431111</v>
+      </c>
+      <c r="G7">
+        <v>-0.01326741285645486</v>
+      </c>
+      <c r="H7">
+        <v>-0.003989162249261755</v>
+      </c>
+      <c r="I7">
+        <v>-0.0475378377436468</v>
+      </c>
+      <c r="J7">
+        <v>0.06020243755245582</v>
+      </c>
+      <c r="K7">
+        <v>-0.06608495613159011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04022294839922327</v>
+        <v>0.04236845512499041</v>
       </c>
       <c r="C8">
-        <v>-0.05422673347297572</v>
+        <v>-0.02466579060682888</v>
       </c>
       <c r="D8">
-        <v>-0.00584094598269383</v>
+        <v>-0.004467565839530634</v>
       </c>
       <c r="E8">
-        <v>0.05725638231196011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.06232452438990982</v>
+      </c>
+      <c r="F8">
+        <v>-0.04364561826370862</v>
+      </c>
+      <c r="G8">
+        <v>0.06571372748087687</v>
+      </c>
+      <c r="H8">
+        <v>0.03411575578505816</v>
+      </c>
+      <c r="I8">
+        <v>-0.09364828508817502</v>
+      </c>
+      <c r="J8">
+        <v>-0.01541891419297689</v>
+      </c>
+      <c r="K8">
+        <v>-0.04242873590749033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.08008130851361349</v>
+        <v>0.08705079501086208</v>
       </c>
       <c r="C9">
-        <v>-0.05878752096014025</v>
+        <v>-0.0514303903905365</v>
       </c>
       <c r="D9">
-        <v>0.04450525176803678</v>
+        <v>0.03262140026507217</v>
       </c>
       <c r="E9">
-        <v>0.01755293165840892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02278550664638299</v>
+      </c>
+      <c r="F9">
+        <v>-0.05748787828409658</v>
+      </c>
+      <c r="G9">
+        <v>0.04305017881910941</v>
+      </c>
+      <c r="H9">
+        <v>0.00117970292878656</v>
+      </c>
+      <c r="I9">
+        <v>-0.07641998931376104</v>
+      </c>
+      <c r="J9">
+        <v>-0.03663555318173885</v>
+      </c>
+      <c r="K9">
+        <v>-0.02854001273870373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.02084078738190314</v>
+        <v>0.06846084359499675</v>
       </c>
       <c r="C10">
-        <v>0.1605736612050198</v>
+        <v>0.1959319270265176</v>
       </c>
       <c r="D10">
-        <v>-0.001146573272459796</v>
+        <v>0.01834534041723578</v>
       </c>
       <c r="E10">
-        <v>0.08921295260654012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.05395736702168407</v>
+      </c>
+      <c r="F10">
+        <v>-0.03113279328417357</v>
+      </c>
+      <c r="G10">
+        <v>-0.03622955821488624</v>
+      </c>
+      <c r="H10">
+        <v>0.007074960096761181</v>
+      </c>
+      <c r="I10">
+        <v>0.03049312710653039</v>
+      </c>
+      <c r="J10">
+        <v>0.02518729992825066</v>
+      </c>
+      <c r="K10">
+        <v>0.01693948964659801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07461817363650673</v>
+        <v>0.07564933826650584</v>
       </c>
       <c r="C11">
-        <v>-0.05571868220966152</v>
+        <v>-0.05726213815065945</v>
       </c>
       <c r="D11">
-        <v>0.03097648741050428</v>
+        <v>0.03199550914130913</v>
       </c>
       <c r="E11">
-        <v>0.03608248783817922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02074646257977163</v>
+      </c>
+      <c r="F11">
+        <v>-0.0165347059236955</v>
+      </c>
+      <c r="G11">
+        <v>0.06929954205640165</v>
+      </c>
+      <c r="H11">
+        <v>-0.01564756574976088</v>
+      </c>
+      <c r="I11">
+        <v>-0.06871750226028654</v>
+      </c>
+      <c r="J11">
+        <v>0.03608407956048011</v>
+      </c>
+      <c r="K11">
+        <v>0.0472564514663866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07161641267431275</v>
+        <v>0.07308602229824601</v>
       </c>
       <c r="C12">
-        <v>-0.04310968650687558</v>
+        <v>-0.04712909298928367</v>
       </c>
       <c r="D12">
-        <v>0.03907126039693626</v>
+        <v>0.02672595214041213</v>
       </c>
       <c r="E12">
-        <v>0.03047309305376721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01355085922346882</v>
+      </c>
+      <c r="F12">
+        <v>-0.03225316882057693</v>
+      </c>
+      <c r="G12">
+        <v>0.05554155478309614</v>
+      </c>
+      <c r="H12">
+        <v>0.009809659093948844</v>
+      </c>
+      <c r="I12">
+        <v>-0.0863073406062763</v>
+      </c>
+      <c r="J12">
+        <v>0.03811688891376618</v>
+      </c>
+      <c r="K12">
+        <v>0.0238504947046726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08124941042285493</v>
+        <v>0.07042104793198928</v>
       </c>
       <c r="C13">
-        <v>-0.03544033015812172</v>
+        <v>-0.03492340959112417</v>
       </c>
       <c r="D13">
-        <v>0.02521850258069306</v>
+        <v>-0.01069598011527865</v>
       </c>
       <c r="E13">
-        <v>0.02059499086212603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01235617993340164</v>
+      </c>
+      <c r="F13">
+        <v>-0.04375733938650476</v>
+      </c>
+      <c r="G13">
+        <v>0.02325935400896934</v>
+      </c>
+      <c r="H13">
+        <v>0.000818956300355126</v>
+      </c>
+      <c r="I13">
+        <v>-0.1014093734291798</v>
+      </c>
+      <c r="J13">
+        <v>0.0225196246755346</v>
+      </c>
+      <c r="K13">
+        <v>-0.09785308326000308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03499766560955863</v>
+        <v>0.0437601737140916</v>
       </c>
       <c r="C14">
-        <v>0.003656375874864139</v>
+        <v>-0.008941279334951846</v>
       </c>
       <c r="D14">
-        <v>0.03036949473430831</v>
+        <v>0.03246952680821393</v>
       </c>
       <c r="E14">
-        <v>0.01120718745014567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002505022000120303</v>
+      </c>
+      <c r="F14">
+        <v>-0.0321935586299463</v>
+      </c>
+      <c r="G14">
+        <v>0.02846516146485112</v>
+      </c>
+      <c r="H14">
+        <v>-0.04453905573180949</v>
+      </c>
+      <c r="I14">
+        <v>-0.06663311549719675</v>
+      </c>
+      <c r="J14">
+        <v>-0.04467465956854536</v>
+      </c>
+      <c r="K14">
+        <v>-0.04600448876289418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.0576770760859074</v>
+        <v>0.04637253476941818</v>
       </c>
       <c r="C15">
-        <v>-0.01598091564889694</v>
+        <v>-0.01611287285738114</v>
       </c>
       <c r="D15">
-        <v>0.009227708952553246</v>
+        <v>-0.01188760862379958</v>
       </c>
       <c r="E15">
-        <v>0.006193580268351098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.002798896835006176</v>
+      </c>
+      <c r="F15">
+        <v>-0.03482697034152026</v>
+      </c>
+      <c r="G15">
+        <v>0.01299470654347438</v>
+      </c>
+      <c r="H15">
+        <v>-0.001838503053459528</v>
+      </c>
+      <c r="I15">
+        <v>-0.02584982483516327</v>
+      </c>
+      <c r="J15">
+        <v>-0.03620792690374337</v>
+      </c>
+      <c r="K15">
+        <v>-0.07299187959715366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.06438086198092013</v>
+        <v>0.07473276778135621</v>
       </c>
       <c r="C16">
-        <v>-0.0578983561608698</v>
+        <v>-0.05801556019789395</v>
       </c>
       <c r="D16">
-        <v>0.03647838992033409</v>
+        <v>0.03211772416458903</v>
       </c>
       <c r="E16">
-        <v>0.02568304834258807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01534015048355196</v>
+      </c>
+      <c r="F16">
+        <v>-0.03509875138470195</v>
+      </c>
+      <c r="G16">
+        <v>0.04338932595066284</v>
+      </c>
+      <c r="H16">
+        <v>-0.01183910674577558</v>
+      </c>
+      <c r="I16">
+        <v>-0.05109896245419204</v>
+      </c>
+      <c r="J16">
+        <v>0.0267060549423995</v>
+      </c>
+      <c r="K16">
+        <v>0.02411425558345194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.07042547229326745</v>
+        <v>0.06332477664126725</v>
       </c>
       <c r="C20">
-        <v>-0.05349329434285201</v>
+        <v>-0.03961967784192252</v>
       </c>
       <c r="D20">
-        <v>0.01653777390175447</v>
+        <v>0.009900302071665567</v>
       </c>
       <c r="E20">
-        <v>0.02626210221172292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.01848141950731428</v>
+      </c>
+      <c r="F20">
+        <v>-0.01565546949041213</v>
+      </c>
+      <c r="G20">
+        <v>0.0434630406718827</v>
+      </c>
+      <c r="H20">
+        <v>-0.01566140505329199</v>
+      </c>
+      <c r="I20">
+        <v>-0.1238863679919429</v>
+      </c>
+      <c r="J20">
+        <v>0.006636098934490358</v>
+      </c>
+      <c r="K20">
+        <v>-0.03038799436745191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.0394032955693534</v>
+        <v>0.03224661782765628</v>
       </c>
       <c r="C21">
-        <v>-0.02504032706335387</v>
+        <v>-0.02526393344204547</v>
       </c>
       <c r="D21">
-        <v>-0.02470180910371942</v>
+        <v>-0.0331026633109646</v>
       </c>
       <c r="E21">
-        <v>0.01663320491860193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.006006330568019083</v>
+      </c>
+      <c r="F21">
+        <v>-0.02050155812512385</v>
+      </c>
+      <c r="G21">
+        <v>0.01530922843668201</v>
+      </c>
+      <c r="H21">
+        <v>0.07537761267099566</v>
+      </c>
+      <c r="I21">
+        <v>-0.02763974581168906</v>
+      </c>
+      <c r="J21">
+        <v>-0.03962270385816247</v>
+      </c>
+      <c r="K21">
+        <v>-0.05753373008798748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.120092116006895</v>
+        <v>0.09599661223495576</v>
       </c>
       <c r="C22">
-        <v>-0.1155541266357135</v>
+        <v>-0.07017126033934495</v>
       </c>
       <c r="D22">
-        <v>-0.02605097375186044</v>
+        <v>-0.2886749385012528</v>
       </c>
       <c r="E22">
-        <v>0.0337119976446713</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.09269273977989891</v>
+      </c>
+      <c r="F22">
+        <v>-0.4587672476522106</v>
+      </c>
+      <c r="G22">
+        <v>-0.3212786705873627</v>
+      </c>
+      <c r="H22">
+        <v>0.03303517565158735</v>
+      </c>
+      <c r="I22">
+        <v>0.1995664078758466</v>
+      </c>
+      <c r="J22">
+        <v>0.05030925783241151</v>
+      </c>
+      <c r="K22">
+        <v>0.0439488104786494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1210379219451405</v>
+        <v>0.09693485361466973</v>
       </c>
       <c r="C23">
-        <v>-0.1148283856313831</v>
+        <v>-0.07042418131347528</v>
       </c>
       <c r="D23">
-        <v>-0.02416531653419661</v>
+        <v>-0.2881966540955072</v>
       </c>
       <c r="E23">
-        <v>0.0347585732575844</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.09366648764540703</v>
+      </c>
+      <c r="F23">
+        <v>-0.4634154879346054</v>
+      </c>
+      <c r="G23">
+        <v>-0.3165432171016056</v>
+      </c>
+      <c r="H23">
+        <v>0.03162618873319525</v>
+      </c>
+      <c r="I23">
+        <v>0.2021919964773982</v>
+      </c>
+      <c r="J23">
+        <v>0.04491141974647264</v>
+      </c>
+      <c r="K23">
+        <v>0.04411361063899302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08512569512790495</v>
+        <v>0.08470739482799522</v>
       </c>
       <c r="C24">
-        <v>-0.0542483210294748</v>
+        <v>-0.05539839638912553</v>
       </c>
       <c r="D24">
-        <v>0.03224564048452914</v>
+        <v>0.02471036817946472</v>
       </c>
       <c r="E24">
-        <v>0.03858675960303892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02466922266250441</v>
+      </c>
+      <c r="F24">
+        <v>-0.03594279091760653</v>
+      </c>
+      <c r="G24">
+        <v>0.06512500584886989</v>
+      </c>
+      <c r="H24">
+        <v>0.00700253546714049</v>
+      </c>
+      <c r="I24">
+        <v>-0.06499655955843596</v>
+      </c>
+      <c r="J24">
+        <v>0.01742227924446219</v>
+      </c>
+      <c r="K24">
+        <v>0.03294238725524322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.08222603941464338</v>
+        <v>0.07911068389608107</v>
       </c>
       <c r="C25">
-        <v>-0.04725742006627202</v>
+        <v>-0.0447968977089983</v>
       </c>
       <c r="D25">
-        <v>0.04802413231604686</v>
+        <v>0.03461572131246961</v>
       </c>
       <c r="E25">
-        <v>0.04666902726220924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01940588153965925</v>
+      </c>
+      <c r="F25">
+        <v>-0.04492827591952628</v>
+      </c>
+      <c r="G25">
+        <v>0.06270680050525992</v>
+      </c>
+      <c r="H25">
+        <v>-0.004647286726475659</v>
+      </c>
+      <c r="I25">
+        <v>-0.07823943488999648</v>
+      </c>
+      <c r="J25">
+        <v>0.02253608742613411</v>
+      </c>
+      <c r="K25">
+        <v>0.04777712407048023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05450168585689991</v>
+        <v>0.04819485143695764</v>
       </c>
       <c r="C26">
-        <v>-0.01564036319449699</v>
+        <v>-0.02380913453708629</v>
       </c>
       <c r="D26">
-        <v>-0.001835314191932102</v>
+        <v>-0.01983698601940541</v>
       </c>
       <c r="E26">
-        <v>0.03515251670123649</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.01578816665342886</v>
+      </c>
+      <c r="F26">
+        <v>-0.02176980019962838</v>
+      </c>
+      <c r="G26">
+        <v>0.0180033647711899</v>
+      </c>
+      <c r="H26">
+        <v>-0.02548455875839537</v>
+      </c>
+      <c r="I26">
+        <v>-0.04189711945841244</v>
+      </c>
+      <c r="J26">
+        <v>-0.01640132301023244</v>
+      </c>
+      <c r="K26">
+        <v>-0.1205105190673383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.04566493309116794</v>
+        <v>0.08329760326069044</v>
       </c>
       <c r="C28">
-        <v>0.2963281498444914</v>
+        <v>0.2966252139967152</v>
       </c>
       <c r="D28">
-        <v>-8.153123295055452e-05</v>
+        <v>-0.003529563117296256</v>
       </c>
       <c r="E28">
-        <v>0.07559777419079773</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02356485922996954</v>
+      </c>
+      <c r="F28">
+        <v>-0.01250012084882834</v>
+      </c>
+      <c r="G28">
+        <v>0.01962627594752615</v>
+      </c>
+      <c r="H28">
+        <v>0.04526051491827138</v>
+      </c>
+      <c r="I28">
+        <v>0.03766282953528586</v>
+      </c>
+      <c r="J28">
+        <v>0.01163492646725383</v>
+      </c>
+      <c r="K28">
+        <v>-0.06878241327515797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.0602218158497119</v>
+        <v>0.05573765767285977</v>
       </c>
       <c r="C29">
-        <v>0.0006442966300427441</v>
+        <v>-0.01120440267485527</v>
       </c>
       <c r="D29">
-        <v>0.03055729257491046</v>
+        <v>0.02173960737447322</v>
       </c>
       <c r="E29">
-        <v>0.02459995616781785</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01714927122559889</v>
+      </c>
+      <c r="F29">
+        <v>-0.03496871012153441</v>
+      </c>
+      <c r="G29">
+        <v>0.02898878934855489</v>
+      </c>
+      <c r="H29">
+        <v>-0.05586256556841408</v>
+      </c>
+      <c r="I29">
+        <v>-0.05535110810828683</v>
+      </c>
+      <c r="J29">
+        <v>-0.0227722218844307</v>
+      </c>
+      <c r="K29">
+        <v>-0.03667135214702062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1528328272065478</v>
+        <v>0.1321679391318043</v>
       </c>
       <c r="C30">
-        <v>-0.06850775480812564</v>
+        <v>-0.05533722041897343</v>
       </c>
       <c r="D30">
-        <v>0.06879711491238774</v>
+        <v>0.02213711307403861</v>
       </c>
       <c r="E30">
-        <v>0.0534083431112157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04233730306071935</v>
+      </c>
+      <c r="F30">
+        <v>-0.1177375818354657</v>
+      </c>
+      <c r="G30">
+        <v>0.07199901284927032</v>
+      </c>
+      <c r="H30">
+        <v>0.1045129403380235</v>
+      </c>
+      <c r="I30">
+        <v>-0.316925599202333</v>
+      </c>
+      <c r="J30">
+        <v>0.07797429651281432</v>
+      </c>
+      <c r="K30">
+        <v>-0.2221236962245858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.06002221664483809</v>
+        <v>0.04954998810928971</v>
       </c>
       <c r="C31">
-        <v>-0.01566693729172326</v>
+        <v>-0.03570834256298155</v>
       </c>
       <c r="D31">
-        <v>0.02469342308288978</v>
+        <v>0.006754702161362788</v>
       </c>
       <c r="E31">
-        <v>0.004147958925329129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.006559651284132975</v>
+      </c>
+      <c r="F31">
+        <v>-0.02120643038016313</v>
+      </c>
+      <c r="G31">
+        <v>5.400484308233929e-05</v>
+      </c>
+      <c r="H31">
+        <v>-0.04815479298618353</v>
+      </c>
+      <c r="I31">
+        <v>-0.05001289583961373</v>
+      </c>
+      <c r="J31">
+        <v>-0.02947253786800836</v>
+      </c>
+      <c r="K31">
+        <v>-0.01466751310452181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04820106068812274</v>
+        <v>0.05137703561572853</v>
       </c>
       <c r="C32">
-        <v>-0.01566303400941772</v>
+        <v>0.004598995491515927</v>
       </c>
       <c r="D32">
-        <v>0.01254289323440415</v>
+        <v>-0.02603666414949468</v>
       </c>
       <c r="E32">
-        <v>0.007110365070197449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.005345286058760678</v>
+      </c>
+      <c r="F32">
+        <v>-0.0839263378515584</v>
+      </c>
+      <c r="G32">
+        <v>-0.009462493680280045</v>
+      </c>
+      <c r="H32">
+        <v>-0.003894761279817866</v>
+      </c>
+      <c r="I32">
+        <v>0.02372878704647635</v>
+      </c>
+      <c r="J32">
+        <v>0.06321619429650302</v>
+      </c>
+      <c r="K32">
+        <v>-0.1293666574634064</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1034921063973455</v>
+        <v>0.104058767073533</v>
       </c>
       <c r="C33">
-        <v>-0.03067013688097618</v>
+        <v>-0.04653822734001007</v>
       </c>
       <c r="D33">
-        <v>0.03440347437775991</v>
+        <v>0.007842017722818111</v>
       </c>
       <c r="E33">
-        <v>0.01153281780138896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.009342342190784062</v>
+      </c>
+      <c r="F33">
+        <v>-0.03513386671546119</v>
+      </c>
+      <c r="G33">
+        <v>0.01778728853256904</v>
+      </c>
+      <c r="H33">
+        <v>-0.02175920490441739</v>
+      </c>
+      <c r="I33">
+        <v>-0.06849035483960726</v>
+      </c>
+      <c r="J33">
+        <v>-0.02058510307243391</v>
+      </c>
+      <c r="K33">
+        <v>-0.03296857849894088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06440078485768734</v>
+        <v>0.07049847072894318</v>
       </c>
       <c r="C34">
-        <v>-0.05668925347703471</v>
+        <v>-0.04749505147788956</v>
       </c>
       <c r="D34">
-        <v>0.02131390180840963</v>
+        <v>0.0189321446520666</v>
       </c>
       <c r="E34">
-        <v>0.02597007617673582</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01724333124427222</v>
+      </c>
+      <c r="F34">
+        <v>-0.02586703559261825</v>
+      </c>
+      <c r="G34">
+        <v>0.0474698634003478</v>
+      </c>
+      <c r="H34">
+        <v>-0.02302772848257728</v>
+      </c>
+      <c r="I34">
+        <v>-0.06209803793321158</v>
+      </c>
+      <c r="J34">
+        <v>0.001920756577294067</v>
+      </c>
+      <c r="K34">
+        <v>0.05249007162073239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04278414624757687</v>
+        <v>0.03687359702304631</v>
       </c>
       <c r="C35">
-        <v>-0.01050587743280943</v>
+        <v>-0.01749344896043945</v>
       </c>
       <c r="D35">
-        <v>0.01931158114617203</v>
+        <v>0.01138927541936942</v>
       </c>
       <c r="E35">
-        <v>0.005400771643493397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.008907589808667021</v>
+      </c>
+      <c r="F35">
+        <v>-0.01910310956045527</v>
+      </c>
+      <c r="G35">
+        <v>0.00277709349006837</v>
+      </c>
+      <c r="H35">
+        <v>-0.01662980239625446</v>
+      </c>
+      <c r="I35">
+        <v>-0.06875679373734346</v>
+      </c>
+      <c r="J35">
+        <v>0.002252621550258801</v>
+      </c>
+      <c r="K35">
+        <v>-0.002458806176683418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03871193361386605</v>
+        <v>0.03461670530454642</v>
       </c>
       <c r="C36">
-        <v>-0.01700867675843415</v>
+        <v>-0.01345928958981536</v>
       </c>
       <c r="D36">
-        <v>0.0120782956239375</v>
+        <v>-0.00106129208003186</v>
       </c>
       <c r="E36">
-        <v>0.03227764505615431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02549660047140366</v>
+      </c>
+      <c r="F36">
+        <v>-0.03425738907130618</v>
+      </c>
+      <c r="G36">
+        <v>0.0237169146029766</v>
+      </c>
+      <c r="H36">
+        <v>-0.01160223334309033</v>
+      </c>
+      <c r="I36">
+        <v>-0.07484780752581886</v>
+      </c>
+      <c r="J36">
+        <v>-0.007879585695854667</v>
+      </c>
+      <c r="K36">
+        <v>-0.03954236962529708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06720602130274281</v>
+        <v>0.05587895217545927</v>
       </c>
       <c r="C38">
-        <v>-0.00744513963588696</v>
+        <v>-0.03690215975231516</v>
       </c>
       <c r="D38">
-        <v>-0.02121786755852763</v>
+        <v>-0.03443708032236968</v>
       </c>
       <c r="E38">
-        <v>-0.01354748928888473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.008558770821743694</v>
+      </c>
+      <c r="F38">
+        <v>0.004906700346124109</v>
+      </c>
+      <c r="G38">
+        <v>0.002590754040664211</v>
+      </c>
+      <c r="H38">
+        <v>-0.019701015221406</v>
+      </c>
+      <c r="I38">
+        <v>0.04070434308474141</v>
+      </c>
+      <c r="J38">
+        <v>0.01523019500757712</v>
+      </c>
+      <c r="K38">
+        <v>-0.06592738586332247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.0960797637083363</v>
+        <v>0.1002171725036483</v>
       </c>
       <c r="C39">
-        <v>-0.04360394928160132</v>
+        <v>-0.04942437195537629</v>
       </c>
       <c r="D39">
-        <v>0.04004262169557119</v>
+        <v>0.02805609604312752</v>
       </c>
       <c r="E39">
-        <v>0.00848339340718984</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01115676969283059</v>
+      </c>
+      <c r="F39">
+        <v>-0.04068570872345451</v>
+      </c>
+      <c r="G39">
+        <v>0.05732914285746997</v>
+      </c>
+      <c r="H39">
+        <v>0.004482199148809489</v>
+      </c>
+      <c r="I39">
+        <v>-0.0942027491731969</v>
+      </c>
+      <c r="J39">
+        <v>0.1310052422088269</v>
+      </c>
+      <c r="K39">
+        <v>0.01586809505677389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07436917917131153</v>
+        <v>0.04933999835672941</v>
       </c>
       <c r="C40">
-        <v>-0.01769054681629445</v>
+        <v>-0.04317955268500527</v>
       </c>
       <c r="D40">
-        <v>0.02738774384158883</v>
+        <v>-0.03691539976030176</v>
       </c>
       <c r="E40">
-        <v>0.02151581983595765</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.001543214182575171</v>
+      </c>
+      <c r="F40">
+        <v>-0.06653487226752916</v>
+      </c>
+      <c r="G40">
+        <v>0.08508997435262475</v>
+      </c>
+      <c r="H40">
+        <v>0.08766750946369141</v>
+      </c>
+      <c r="I40">
+        <v>-0.1793105776959826</v>
+      </c>
+      <c r="J40">
+        <v>0.2330831049336707</v>
+      </c>
+      <c r="K40">
+        <v>-0.05336109007061379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.06273620442235647</v>
+        <v>0.04895389257724298</v>
       </c>
       <c r="C41">
-        <v>-0.02597515186995204</v>
+        <v>-0.03218118053591391</v>
       </c>
       <c r="D41">
-        <v>0.007820365335934408</v>
+        <v>0.004063760611156749</v>
       </c>
       <c r="E41">
-        <v>-0.00289539456485493</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001589341283247212</v>
+      </c>
+      <c r="F41">
+        <v>0.01619036841409333</v>
+      </c>
+      <c r="G41">
+        <v>0.01584082158245961</v>
+      </c>
+      <c r="H41">
+        <v>-0.03123225520582265</v>
+      </c>
+      <c r="I41">
+        <v>-0.01872055318384877</v>
+      </c>
+      <c r="J41">
+        <v>0.0327322727697549</v>
+      </c>
+      <c r="K41">
+        <v>-0.03484533100946233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06390243510195215</v>
+        <v>0.06168232859126353</v>
       </c>
       <c r="C43">
-        <v>-0.01544925292151786</v>
+        <v>-0.03421711513138883</v>
       </c>
       <c r="D43">
-        <v>0.01715579934792986</v>
+        <v>0.01017598107753429</v>
       </c>
       <c r="E43">
-        <v>0.02107837085243386</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02132557151120983</v>
+      </c>
+      <c r="F43">
+        <v>-0.01301998367282533</v>
+      </c>
+      <c r="G43">
+        <v>0.005849625600325734</v>
+      </c>
+      <c r="H43">
+        <v>-0.05196334226895129</v>
+      </c>
+      <c r="I43">
+        <v>-0.01899270099533835</v>
+      </c>
+      <c r="J43">
+        <v>0.009485243728705458</v>
+      </c>
+      <c r="K43">
+        <v>-0.009904544232591832</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09410585254445675</v>
+        <v>0.09545838168445657</v>
       </c>
       <c r="C44">
-        <v>-0.05873804878261594</v>
+        <v>-0.05511755467670515</v>
       </c>
       <c r="D44">
-        <v>0.01793999747218998</v>
+        <v>-0.006329551594850288</v>
       </c>
       <c r="E44">
-        <v>0.08041711630996495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.09479429035629976</v>
+      </c>
+      <c r="F44">
+        <v>-0.09903453401135701</v>
+      </c>
+      <c r="G44">
+        <v>0.1183400870339754</v>
+      </c>
+      <c r="H44">
+        <v>-0.02427189676779375</v>
+      </c>
+      <c r="I44">
+        <v>-0.1209960890707367</v>
+      </c>
+      <c r="J44">
+        <v>0.0592049270607242</v>
+      </c>
+      <c r="K44">
+        <v>-0.01010399555602665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.0320757763346943</v>
+        <v>0.04603613554010973</v>
       </c>
       <c r="C46">
-        <v>-0.03117361885926356</v>
+        <v>-0.03018957164814731</v>
       </c>
       <c r="D46">
-        <v>0.01483724555046188</v>
+        <v>0.0123287272065446</v>
       </c>
       <c r="E46">
-        <v>0.0236728594428797</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02597643325540836</v>
+      </c>
+      <c r="F46">
+        <v>-0.04243669105122516</v>
+      </c>
+      <c r="G46">
+        <v>0.005515597614892257</v>
+      </c>
+      <c r="H46">
+        <v>-0.007404895490219432</v>
+      </c>
+      <c r="I46">
+        <v>-0.02065824127751577</v>
+      </c>
+      <c r="J46">
+        <v>-0.03413527796942972</v>
+      </c>
+      <c r="K46">
+        <v>-0.04772880166605693</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03875813319344866</v>
+        <v>0.04753876436384211</v>
       </c>
       <c r="C47">
-        <v>0.008043788309894918</v>
+        <v>-0.006999327077530323</v>
       </c>
       <c r="D47">
-        <v>0.007752034525305248</v>
+        <v>-0.005700425082168186</v>
       </c>
       <c r="E47">
-        <v>0.02127089839769577</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.002198104637291452</v>
+      </c>
+      <c r="F47">
+        <v>-0.03950711365331554</v>
+      </c>
+      <c r="G47">
+        <v>-0.01078742346949873</v>
+      </c>
+      <c r="H47">
+        <v>-0.01345126462484995</v>
+      </c>
+      <c r="I47">
+        <v>-0.03043576074884315</v>
+      </c>
+      <c r="J47">
+        <v>-0.03610300591766356</v>
+      </c>
+      <c r="K47">
+        <v>0.00614013269615146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.05220156624383012</v>
+        <v>0.04560345631071347</v>
       </c>
       <c r="C48">
-        <v>-0.02279346250783223</v>
+        <v>-0.01562304532105365</v>
       </c>
       <c r="D48">
-        <v>0.02559454768389918</v>
+        <v>-0.009465081960310496</v>
       </c>
       <c r="E48">
-        <v>0.02719275753978467</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.007988933217683866</v>
+      </c>
+      <c r="F48">
+        <v>-0.04888844179109725</v>
+      </c>
+      <c r="G48">
+        <v>0.0003029257046132368</v>
+      </c>
+      <c r="H48">
+        <v>0.007157683781621307</v>
+      </c>
+      <c r="I48">
+        <v>-0.06047193115574148</v>
+      </c>
+      <c r="J48">
+        <v>-0.01325695832252444</v>
+      </c>
+      <c r="K48">
+        <v>-0.04128822201236439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.1473948683808664</v>
+        <v>0.2019640468285704</v>
       </c>
       <c r="C49">
-        <v>-0.004516103383941653</v>
+        <v>-0.01426635496116552</v>
       </c>
       <c r="D49">
-        <v>0.07188296215083666</v>
+        <v>0.1629071064123262</v>
       </c>
       <c r="E49">
-        <v>0.02218127213764273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.003623457205155869</v>
+      </c>
+      <c r="F49">
+        <v>0.1235716567797616</v>
+      </c>
+      <c r="G49">
+        <v>-0.1420115268431792</v>
+      </c>
+      <c r="H49">
+        <v>0.1548535236643652</v>
+      </c>
+      <c r="I49">
+        <v>0.1448285590019997</v>
+      </c>
+      <c r="J49">
+        <v>0.07215421684550616</v>
+      </c>
+      <c r="K49">
+        <v>0.201945881574965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0671229969607669</v>
+        <v>0.05744565673226518</v>
       </c>
       <c r="C50">
-        <v>-0.02182376893895036</v>
+        <v>-0.03230960614081713</v>
       </c>
       <c r="D50">
-        <v>0.03034803227658148</v>
+        <v>0.009169495270706316</v>
       </c>
       <c r="E50">
-        <v>0.008214415376713181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01233296173967488</v>
+      </c>
+      <c r="F50">
+        <v>-0.03289291303795612</v>
+      </c>
+      <c r="G50">
+        <v>0.009323940237003059</v>
+      </c>
+      <c r="H50">
+        <v>-0.05703556695809977</v>
+      </c>
+      <c r="I50">
+        <v>-0.04393787028297898</v>
+      </c>
+      <c r="J50">
+        <v>-0.04681920086188376</v>
+      </c>
+      <c r="K50">
+        <v>-0.0274361055173696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03470559101648042</v>
+        <v>0.03971410547681616</v>
       </c>
       <c r="C51">
-        <v>0.006387375761482875</v>
+        <v>0.001597990296136261</v>
       </c>
       <c r="D51">
-        <v>-0.01631470944678996</v>
+        <v>-0.01383351937669313</v>
       </c>
       <c r="E51">
-        <v>0.006511659874007503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.02585054737515508</v>
+      </c>
+      <c r="F51">
+        <v>0.02565178356552451</v>
+      </c>
+      <c r="G51">
+        <v>-0.01077159061842637</v>
+      </c>
+      <c r="H51">
+        <v>0.0175259634559939</v>
+      </c>
+      <c r="I51">
+        <v>0.01268144065231043</v>
+      </c>
+      <c r="J51">
+        <v>0.03875033221447571</v>
+      </c>
+      <c r="K51">
+        <v>0.06524723866267915</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1555237177494233</v>
+        <v>0.1568335926576504</v>
       </c>
       <c r="C53">
-        <v>0.03537864484418628</v>
+        <v>-0.01446295595963463</v>
       </c>
       <c r="D53">
-        <v>0.06084301500459433</v>
+        <v>0.06344702781517153</v>
       </c>
       <c r="E53">
-        <v>0.005831382725953856</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.01400818983205951</v>
+      </c>
+      <c r="F53">
+        <v>0.01391484140728269</v>
+      </c>
+      <c r="G53">
+        <v>-0.03617689330119888</v>
+      </c>
+      <c r="H53">
+        <v>-0.2398812337953482</v>
+      </c>
+      <c r="I53">
+        <v>0.03251382936967167</v>
+      </c>
+      <c r="J53">
+        <v>-0.04181388083933044</v>
+      </c>
+      <c r="K53">
+        <v>0.05492771095249368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06567759083909459</v>
+        <v>0.06318998835103878</v>
       </c>
       <c r="C54">
-        <v>-0.01699953281883161</v>
+        <v>-0.01178515038326528</v>
       </c>
       <c r="D54">
-        <v>0.01031479903414118</v>
+        <v>-0.009662044202794767</v>
       </c>
       <c r="E54">
-        <v>0.0366380482444695</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02757092958683998</v>
+      </c>
+      <c r="F54">
+        <v>-0.07069349281420179</v>
+      </c>
+      <c r="G54">
+        <v>0.06127129671064716</v>
+      </c>
+      <c r="H54">
+        <v>0.007158255447403862</v>
+      </c>
+      <c r="I54">
+        <v>-0.1088092516780827</v>
+      </c>
+      <c r="J54">
+        <v>-0.03527736730048595</v>
+      </c>
+      <c r="K54">
+        <v>-0.07354427128314418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09865866197952763</v>
+        <v>0.09692950094642674</v>
       </c>
       <c r="C55">
-        <v>0.0002167405866429212</v>
+        <v>-0.0286544765083919</v>
       </c>
       <c r="D55">
-        <v>0.04862146749917446</v>
+        <v>0.04062818777867671</v>
       </c>
       <c r="E55">
-        <v>0.02819794245234481</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.00955661532144569</v>
+      </c>
+      <c r="F55">
+        <v>-0.01050795737786798</v>
+      </c>
+      <c r="G55">
+        <v>0.02378382213590025</v>
+      </c>
+      <c r="H55">
+        <v>-0.1721250681221518</v>
+      </c>
+      <c r="I55">
+        <v>-0.01673949881014887</v>
+      </c>
+      <c r="J55">
+        <v>-0.0364732516139149</v>
+      </c>
+      <c r="K55">
+        <v>0.04902192560963472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1541067384556872</v>
+        <v>0.1521793092469411</v>
       </c>
       <c r="C56">
-        <v>0.03013632081940554</v>
+        <v>-0.03341967110791159</v>
       </c>
       <c r="D56">
-        <v>0.08153349452308913</v>
+        <v>0.06914140511222117</v>
       </c>
       <c r="E56">
-        <v>0.04212819027490111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.001110214778138024</v>
+      </c>
+      <c r="F56">
+        <v>-0.005756578573664008</v>
+      </c>
+      <c r="G56">
+        <v>-0.01247283462612915</v>
+      </c>
+      <c r="H56">
+        <v>-0.23863873250415</v>
+      </c>
+      <c r="I56">
+        <v>0.04301372406477014</v>
+      </c>
+      <c r="J56">
+        <v>-0.01001583098700492</v>
+      </c>
+      <c r="K56">
+        <v>0.01476610099906008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1197572263634053</v>
+        <v>0.08121598899907938</v>
       </c>
       <c r="C58">
-        <v>-0.05390240794401819</v>
+        <v>-0.04415065638114443</v>
       </c>
       <c r="D58">
-        <v>-0.1230536580239402</v>
+        <v>-0.166785632717734</v>
       </c>
       <c r="E58">
-        <v>0.1271649614100305</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.09149349467257062</v>
+      </c>
+      <c r="F58">
+        <v>-0.01659992334784605</v>
+      </c>
+      <c r="G58">
+        <v>-0.05395098941611535</v>
+      </c>
+      <c r="H58">
+        <v>0.2890115211815608</v>
+      </c>
+      <c r="I58">
+        <v>-0.4758319268863215</v>
+      </c>
+      <c r="J58">
+        <v>-0.002490539084390377</v>
+      </c>
+      <c r="K58">
+        <v>0.2896597847969342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1274105335355046</v>
+        <v>0.1654353150296122</v>
       </c>
       <c r="C59">
-        <v>0.4371478888220074</v>
+        <v>0.3563958424661582</v>
       </c>
       <c r="D59">
-        <v>-0.02296730566539704</v>
+        <v>-0.02394553295964313</v>
       </c>
       <c r="E59">
-        <v>0.08657248283484806</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02797021384494455</v>
+      </c>
+      <c r="F59">
+        <v>0.01922251116583349</v>
+      </c>
+      <c r="G59">
+        <v>0.03298570687780523</v>
+      </c>
+      <c r="H59">
+        <v>-0.05282116997275583</v>
+      </c>
+      <c r="I59">
+        <v>0.02520113334878531</v>
+      </c>
+      <c r="J59">
+        <v>0.07175864132266814</v>
+      </c>
+      <c r="K59">
+        <v>-0.005380930262008399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2194179880877659</v>
+        <v>0.2447789342110856</v>
       </c>
       <c r="C60">
-        <v>0.02666753698308168</v>
+        <v>-0.03353745342772181</v>
       </c>
       <c r="D60">
-        <v>0.07475400821442513</v>
+        <v>0.1249986201141852</v>
       </c>
       <c r="E60">
-        <v>0.05537243375282679</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02104439334125943</v>
+      </c>
+      <c r="F60">
+        <v>0.07709381504973051</v>
+      </c>
+      <c r="G60">
+        <v>-0.03067168684088715</v>
+      </c>
+      <c r="H60">
+        <v>0.09227374832537169</v>
+      </c>
+      <c r="I60">
+        <v>0.1700592577921183</v>
+      </c>
+      <c r="J60">
+        <v>-0.07739009663478383</v>
+      </c>
+      <c r="K60">
+        <v>0.1368092146776662</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.08050990560591073</v>
+        <v>0.08776943788782737</v>
       </c>
       <c r="C61">
-        <v>-0.02302381998078609</v>
+        <v>-0.03643299770871564</v>
       </c>
       <c r="D61">
-        <v>0.02910568706957438</v>
+        <v>0.02697570087415707</v>
       </c>
       <c r="E61">
-        <v>0.00881968514417141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01351390510347741</v>
+      </c>
+      <c r="F61">
+        <v>-0.02590596723174967</v>
+      </c>
+      <c r="G61">
+        <v>0.05554942580189336</v>
+      </c>
+      <c r="H61">
+        <v>-0.04507359597757614</v>
+      </c>
+      <c r="I61">
+        <v>-0.06026557237969214</v>
+      </c>
+      <c r="J61">
+        <v>0.06396646837821042</v>
+      </c>
+      <c r="K61">
+        <v>-0.004588645855250141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1493822317651142</v>
+        <v>0.1465258261906634</v>
       </c>
       <c r="C62">
-        <v>0.02608837457103536</v>
+        <v>-0.03572822514502591</v>
       </c>
       <c r="D62">
-        <v>0.03863964215889495</v>
+        <v>0.04354699862926916</v>
       </c>
       <c r="E62">
-        <v>-0.01423659757373817</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0395224335132137</v>
+      </c>
+      <c r="F62">
+        <v>0.0281786006328128</v>
+      </c>
+      <c r="G62">
+        <v>0.01363702364904568</v>
+      </c>
+      <c r="H62">
+        <v>-0.2355604390059712</v>
+      </c>
+      <c r="I62">
+        <v>0.06279689878928335</v>
+      </c>
+      <c r="J62">
+        <v>-0.07563573015752147</v>
+      </c>
+      <c r="K62">
+        <v>0.009386515596794784</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06177558715528603</v>
+        <v>0.05400372437165064</v>
       </c>
       <c r="C63">
-        <v>-0.02652474572706309</v>
+        <v>-0.0205702939474854</v>
       </c>
       <c r="D63">
-        <v>0.01996915883291029</v>
+        <v>0.007163861023398908</v>
       </c>
       <c r="E63">
-        <v>0.01505225492666815</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004090916919073239</v>
+      </c>
+      <c r="F63">
+        <v>-0.03377296113884619</v>
+      </c>
+      <c r="G63">
+        <v>0.04592962464019028</v>
+      </c>
+      <c r="H63">
+        <v>-0.01291493091002761</v>
+      </c>
+      <c r="I63">
+        <v>-0.04343362773652054</v>
+      </c>
+      <c r="J63">
+        <v>-0.03846154116033063</v>
+      </c>
+      <c r="K63">
+        <v>-0.03896600091857676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1015970644178321</v>
+        <v>0.1062239897314511</v>
       </c>
       <c r="C64">
-        <v>0.002680874554068224</v>
+        <v>-0.01769691158146207</v>
       </c>
       <c r="D64">
-        <v>0.05233532548675756</v>
+        <v>0.0455027527005231</v>
       </c>
       <c r="E64">
-        <v>0.03039635751231785</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02985567847795364</v>
+      </c>
+      <c r="F64">
+        <v>-0.05775349665252193</v>
+      </c>
+      <c r="G64">
+        <v>0.03370791455883651</v>
+      </c>
+      <c r="H64">
+        <v>0.02033481648580288</v>
+      </c>
+      <c r="I64">
+        <v>-0.04766068048029036</v>
+      </c>
+      <c r="J64">
+        <v>0.03656334471003689</v>
+      </c>
+      <c r="K64">
+        <v>-0.02267647742808269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1200484473973978</v>
+        <v>0.1318771633889787</v>
       </c>
       <c r="C65">
-        <v>-0.02421621240546663</v>
+        <v>-0.009017729889406526</v>
       </c>
       <c r="D65">
-        <v>0.04247423784865514</v>
+        <v>0.0601380237699734</v>
       </c>
       <c r="E65">
-        <v>0.0517826724507677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0007464311589731251</v>
+      </c>
+      <c r="F65">
+        <v>-0.0455168973428637</v>
+      </c>
+      <c r="G65">
+        <v>0.0838144648600208</v>
+      </c>
+      <c r="H65">
+        <v>0.2267343077320249</v>
+      </c>
+      <c r="I65">
+        <v>0.01214620550680805</v>
+      </c>
+      <c r="J65">
+        <v>-0.6578314415614935</v>
+      </c>
+      <c r="K65">
+        <v>0.02311665327495082</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1573945286488286</v>
+        <v>0.1467516597607133</v>
       </c>
       <c r="C66">
-        <v>-0.07188467869367911</v>
+        <v>-0.09166487402621847</v>
       </c>
       <c r="D66">
-        <v>0.051624312325524</v>
+        <v>0.04319021403495568</v>
       </c>
       <c r="E66">
-        <v>0.01559652948562018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.003390967973144093</v>
+      </c>
+      <c r="F66">
+        <v>-0.02439800013130483</v>
+      </c>
+      <c r="G66">
+        <v>0.0934127014316201</v>
+      </c>
+      <c r="H66">
+        <v>-0.01843809291431944</v>
+      </c>
+      <c r="I66">
+        <v>-0.1281971963021521</v>
+      </c>
+      <c r="J66">
+        <v>0.1988276578650394</v>
+      </c>
+      <c r="K66">
+        <v>-0.04289394083527548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.09717842214085111</v>
+        <v>0.09844603238252499</v>
       </c>
       <c r="C67">
-        <v>-0.007535698034245904</v>
+        <v>-0.04388536405830072</v>
       </c>
       <c r="D67">
-        <v>-0.02545051908842156</v>
+        <v>-0.01463817080353793</v>
       </c>
       <c r="E67">
-        <v>0.005108949117776959</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.02670539125450606</v>
+      </c>
+      <c r="F67">
+        <v>0.02612828149637181</v>
+      </c>
+      <c r="G67">
+        <v>0.0002385846345845758</v>
+      </c>
+      <c r="H67">
+        <v>-0.01839788373252506</v>
+      </c>
+      <c r="I67">
+        <v>0.06661741319163365</v>
+      </c>
+      <c r="J67">
+        <v>0.04734789615033998</v>
+      </c>
+      <c r="K67">
+        <v>-0.05008646444286018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04197780362426651</v>
+        <v>0.07686592868477359</v>
       </c>
       <c r="C68">
-        <v>0.2597535715406003</v>
+        <v>0.281475753527175</v>
       </c>
       <c r="D68">
-        <v>-0.01484231516113315</v>
+        <v>-0.02029778684643862</v>
       </c>
       <c r="E68">
-        <v>0.0453223770359547</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.02225377732540084</v>
+      </c>
+      <c r="F68">
+        <v>-0.04057615112966621</v>
+      </c>
+      <c r="G68">
+        <v>-0.009405909614604045</v>
+      </c>
+      <c r="H68">
+        <v>-0.01242123773719924</v>
+      </c>
+      <c r="I68">
+        <v>-0.03146331178326479</v>
+      </c>
+      <c r="J68">
+        <v>-0.04327865846480176</v>
+      </c>
+      <c r="K68">
+        <v>-0.0124385859905515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06986458886729736</v>
+        <v>0.0585134926372305</v>
       </c>
       <c r="C69">
-        <v>-0.01400566816360269</v>
+        <v>-0.01841282569334159</v>
       </c>
       <c r="D69">
-        <v>-0.002444605577139065</v>
+        <v>-0.02180141631645788</v>
       </c>
       <c r="E69">
-        <v>0.01585209821279392</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.005005636090794036</v>
+      </c>
+      <c r="F69">
+        <v>-0.008337504146703081</v>
+      </c>
+      <c r="G69">
+        <v>0.009260022023466194</v>
+      </c>
+      <c r="H69">
+        <v>-0.03186691708703807</v>
+      </c>
+      <c r="I69">
+        <v>-0.01530979478022781</v>
+      </c>
+      <c r="J69">
+        <v>0.003584411085388363</v>
+      </c>
+      <c r="K69">
+        <v>0.009242319506574061</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01368046620379579</v>
+        <v>0.0379350053791997</v>
       </c>
       <c r="C70">
-        <v>0.01138297352623653</v>
+        <v>-0.005148619211419378</v>
       </c>
       <c r="D70">
-        <v>-0.005139237064777783</v>
+        <v>0.0026177499275722</v>
       </c>
       <c r="E70">
-        <v>-0.01488184351807737</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.01106457751710896</v>
+      </c>
+      <c r="F70">
+        <v>0.05176621858194861</v>
+      </c>
+      <c r="G70">
+        <v>-0.006524510046399091</v>
+      </c>
+      <c r="H70">
+        <v>0.0405534186236574</v>
+      </c>
+      <c r="I70">
+        <v>0.02391089432683326</v>
+      </c>
+      <c r="J70">
+        <v>0.02250536593588767</v>
+      </c>
+      <c r="K70">
+        <v>-0.1270150404559896</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.03910103778577143</v>
+        <v>0.08527141894354336</v>
       </c>
       <c r="C71">
-        <v>0.2898257315927715</v>
+        <v>0.3015987608824096</v>
       </c>
       <c r="D71">
-        <v>-0.02309117310396866</v>
+        <v>-0.01052914440554818</v>
       </c>
       <c r="E71">
-        <v>0.08210989478611835</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03926326482947751</v>
+      </c>
+      <c r="F71">
+        <v>-0.03087222021727297</v>
+      </c>
+      <c r="G71">
+        <v>-0.001112693226671816</v>
+      </c>
+      <c r="H71">
+        <v>-0.01403835591882087</v>
+      </c>
+      <c r="I71">
+        <v>-0.02242021705993284</v>
+      </c>
+      <c r="J71">
+        <v>-0.01544223532754904</v>
+      </c>
+      <c r="K71">
+        <v>-0.0015774968031179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1474583748156946</v>
+        <v>0.137317137266074</v>
       </c>
       <c r="C72">
-        <v>0.04594156502487039</v>
+        <v>0.001144924143217</v>
       </c>
       <c r="D72">
-        <v>0.03637926385486315</v>
+        <v>-0.0209642443800569</v>
       </c>
       <c r="E72">
-        <v>-0.2311968249921026</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.1769498196923039</v>
+      </c>
+      <c r="F72">
+        <v>0.00101723222800575</v>
+      </c>
+      <c r="G72">
+        <v>0.1173202233567292</v>
+      </c>
+      <c r="H72">
+        <v>-0.01896127463075395</v>
+      </c>
+      <c r="I72">
+        <v>0.04755896494080764</v>
+      </c>
+      <c r="J72">
+        <v>-0.108976761882541</v>
+      </c>
+      <c r="K72">
+        <v>0.1103208882544206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2533028188059206</v>
+        <v>0.2477610946637226</v>
       </c>
       <c r="C73">
-        <v>-0.04773878860517592</v>
+        <v>-0.09757248296914733</v>
       </c>
       <c r="D73">
-        <v>0.09394751758107008</v>
+        <v>0.183113659180741</v>
       </c>
       <c r="E73">
-        <v>0.0735008563200919</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.04117531146597281</v>
+      </c>
+      <c r="F73">
+        <v>0.2513887639789044</v>
+      </c>
+      <c r="G73">
+        <v>-0.1884114456912505</v>
+      </c>
+      <c r="H73">
+        <v>0.2304251740811875</v>
+      </c>
+      <c r="I73">
+        <v>0.0848244880598705</v>
+      </c>
+      <c r="J73">
+        <v>0.2331834086795908</v>
+      </c>
+      <c r="K73">
+        <v>0.4906464857487942</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08592758779070389</v>
+        <v>0.09217993998063602</v>
       </c>
       <c r="C74">
-        <v>0.01771330554808816</v>
+        <v>-0.02866842417718137</v>
       </c>
       <c r="D74">
-        <v>0.05568031983870883</v>
+        <v>0.04708039065523234</v>
       </c>
       <c r="E74">
-        <v>0.003347909662465298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01602339055049492</v>
+      </c>
+      <c r="F74">
+        <v>-0.007518122381339924</v>
+      </c>
+      <c r="G74">
+        <v>-0.03635376912391872</v>
+      </c>
+      <c r="H74">
+        <v>-0.1403203122444253</v>
+      </c>
+      <c r="I74">
+        <v>-0.02582944837175591</v>
+      </c>
+      <c r="J74">
+        <v>-0.00464863940291122</v>
+      </c>
+      <c r="K74">
+        <v>0.06128083034539624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1220591668638808</v>
+        <v>0.1054571220744487</v>
       </c>
       <c r="C75">
-        <v>0.001470096125325274</v>
+        <v>-0.02850925065595307</v>
       </c>
       <c r="D75">
-        <v>0.004638336740466095</v>
+        <v>-0.01479891156608632</v>
       </c>
       <c r="E75">
-        <v>0.02036954145724245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.002614526077159735</v>
+      </c>
+      <c r="F75">
+        <v>0.02300596164564415</v>
+      </c>
+      <c r="G75">
+        <v>-0.01627128985028481</v>
+      </c>
+      <c r="H75">
+        <v>-0.1234792167756848</v>
+      </c>
+      <c r="I75">
+        <v>0.02572183755915777</v>
+      </c>
+      <c r="J75">
+        <v>-0.03084176813186383</v>
+      </c>
+      <c r="K75">
+        <v>0.01048024827763269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1431774313320447</v>
+        <v>0.1310211322066885</v>
       </c>
       <c r="C76">
-        <v>0.004073893346249506</v>
+        <v>-0.04868248361616737</v>
       </c>
       <c r="D76">
-        <v>0.06708876118899691</v>
+        <v>0.06336024563684402</v>
       </c>
       <c r="E76">
-        <v>0.02966188331652152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.008342027211872457</v>
+      </c>
+      <c r="F76">
+        <v>-0.014645866630169</v>
+      </c>
+      <c r="G76">
+        <v>-0.01715369500045872</v>
+      </c>
+      <c r="H76">
+        <v>-0.2756238115970531</v>
+      </c>
+      <c r="I76">
+        <v>0.008550492570690805</v>
+      </c>
+      <c r="J76">
+        <v>-0.0353602733567503</v>
+      </c>
+      <c r="K76">
+        <v>0.04153678000382776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1326262037359345</v>
+        <v>0.09254682214889363</v>
       </c>
       <c r="C77">
-        <v>-0.04372779815201301</v>
+        <v>-0.03371424072079</v>
       </c>
       <c r="D77">
-        <v>-0.05108029521155718</v>
+        <v>-0.1302654394577772</v>
       </c>
       <c r="E77">
-        <v>0.04298417473734347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.07750139144697571</v>
+      </c>
+      <c r="F77">
+        <v>-0.08290405686395602</v>
+      </c>
+      <c r="G77">
+        <v>0.6897189067825975</v>
+      </c>
+      <c r="H77">
+        <v>0.165880248644808</v>
+      </c>
+      <c r="I77">
+        <v>0.4571001355846289</v>
+      </c>
+      <c r="J77">
+        <v>0.2165249399932042</v>
+      </c>
+      <c r="K77">
+        <v>0.006103152258039008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1227109143851738</v>
+        <v>0.1569129857068807</v>
       </c>
       <c r="C78">
-        <v>-0.0671956422105434</v>
+        <v>-0.07418740726466748</v>
       </c>
       <c r="D78">
-        <v>0.04504051843122886</v>
+        <v>0.01562742296187252</v>
       </c>
       <c r="E78">
-        <v>0.01027926859971172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08065064142411114</v>
+      </c>
+      <c r="F78">
+        <v>-0.1575081216356105</v>
+      </c>
+      <c r="G78">
+        <v>0.03048168322757334</v>
+      </c>
+      <c r="H78">
+        <v>0.1421061705929356</v>
+      </c>
+      <c r="I78">
+        <v>0.06619187215039853</v>
+      </c>
+      <c r="J78">
+        <v>-0.0638036543783151</v>
+      </c>
+      <c r="K78">
+        <v>0.004416222930888133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1519948484305196</v>
+        <v>0.145228572865312</v>
       </c>
       <c r="C79">
-        <v>-0.01775856135937841</v>
+        <v>-0.04086881655278157</v>
       </c>
       <c r="D79">
-        <v>0.06030711175036405</v>
+        <v>0.04441497497140293</v>
       </c>
       <c r="E79">
-        <v>0.003621762627162176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.005489275504959337</v>
+      </c>
+      <c r="F79">
+        <v>-0.001331519730916338</v>
+      </c>
+      <c r="G79">
+        <v>0.01901510300783688</v>
+      </c>
+      <c r="H79">
+        <v>-0.1983416538686176</v>
+      </c>
+      <c r="I79">
+        <v>0.03860013388537929</v>
+      </c>
+      <c r="J79">
+        <v>-0.06753921372719633</v>
+      </c>
+      <c r="K79">
+        <v>0.01936431439824641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03920176326793047</v>
+        <v>0.04458103594232964</v>
       </c>
       <c r="C80">
-        <v>-0.0169011617268578</v>
+        <v>-0.005580123725587842</v>
       </c>
       <c r="D80">
-        <v>0.0128381129656225</v>
+        <v>0.04420731036564621</v>
       </c>
       <c r="E80">
-        <v>0.003265705835790411</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.008970239506280502</v>
+      </c>
+      <c r="F80">
+        <v>0.03755290963088073</v>
+      </c>
+      <c r="G80">
+        <v>0.008419615037495349</v>
+      </c>
+      <c r="H80">
+        <v>0.0398116168775032</v>
+      </c>
+      <c r="I80">
+        <v>-0.08480533584492346</v>
+      </c>
+      <c r="J80">
+        <v>-0.005456871946200598</v>
+      </c>
+      <c r="K80">
+        <v>-0.02052856644588761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.13707866684502</v>
+        <v>0.133450443007938</v>
       </c>
       <c r="C81">
-        <v>0.001661082426918213</v>
+        <v>-0.01660311666379822</v>
       </c>
       <c r="D81">
-        <v>0.04685819500836687</v>
+        <v>0.03814196616318597</v>
       </c>
       <c r="E81">
-        <v>0.02700614579463889</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.006481313966870069</v>
+      </c>
+      <c r="F81">
+        <v>0.002364116511073221</v>
+      </c>
+      <c r="G81">
+        <v>0.008451809381970156</v>
+      </c>
+      <c r="H81">
+        <v>-0.1569499932947325</v>
+      </c>
+      <c r="I81">
+        <v>-0.004817407943308023</v>
+      </c>
+      <c r="J81">
+        <v>0.02476229911407933</v>
+      </c>
+      <c r="K81">
+        <v>-0.01092630011874198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1229331161710745</v>
+        <v>0.1259044815568416</v>
       </c>
       <c r="C82">
-        <v>-0.01502167717744394</v>
+        <v>-0.02793445388845151</v>
       </c>
       <c r="D82">
-        <v>0.02447981773846183</v>
+        <v>0.03673247943926061</v>
       </c>
       <c r="E82">
-        <v>0.04399921229037707</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.009801274137343259</v>
+      </c>
+      <c r="F82">
+        <v>0.02337180017963211</v>
+      </c>
+      <c r="G82">
+        <v>-0.01910624014890637</v>
+      </c>
+      <c r="H82">
+        <v>-0.2833594546650313</v>
+      </c>
+      <c r="I82">
+        <v>0.006650950921898848</v>
+      </c>
+      <c r="J82">
+        <v>0.009587218977429703</v>
+      </c>
+      <c r="K82">
+        <v>-0.003852984710310748</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.05367451203189096</v>
+        <v>0.07799839251719821</v>
       </c>
       <c r="C83">
-        <v>-0.01713994562627746</v>
+        <v>-0.03012412389349251</v>
       </c>
       <c r="D83">
-        <v>-0.06098295586710889</v>
+        <v>-0.02277429302114709</v>
       </c>
       <c r="E83">
-        <v>0.01753854970949239</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02449718435892749</v>
+      </c>
+      <c r="F83">
+        <v>0.07457320644914771</v>
+      </c>
+      <c r="G83">
+        <v>-0.02666639986936681</v>
+      </c>
+      <c r="H83">
+        <v>0.08550365681671569</v>
+      </c>
+      <c r="I83">
+        <v>-0.08607517822989058</v>
+      </c>
+      <c r="J83">
+        <v>0.0291236915377026</v>
+      </c>
+      <c r="K83">
+        <v>-0.03680060910097693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05124466114626734</v>
+        <v>0.03443069940903312</v>
       </c>
       <c r="C84">
-        <v>-0.01250611128133591</v>
+        <v>-0.04144169530996551</v>
       </c>
       <c r="D84">
-        <v>0.0459834399055344</v>
+        <v>0.001822334522139331</v>
       </c>
       <c r="E84">
-        <v>-0.03413228422896523</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.04252541639135933</v>
+      </c>
+      <c r="F84">
+        <v>-0.04445910448047358</v>
+      </c>
+      <c r="G84">
+        <v>-0.0374096440562663</v>
+      </c>
+      <c r="H84">
+        <v>0.009549184694228462</v>
+      </c>
+      <c r="I84">
+        <v>-0.1304721904654872</v>
+      </c>
+      <c r="J84">
+        <v>0.005204225657010551</v>
+      </c>
+      <c r="K84">
+        <v>-0.1036609689435805</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1152940313202364</v>
+        <v>0.1217557975378746</v>
       </c>
       <c r="C85">
-        <v>-0.03546086388807342</v>
+        <v>-0.03824941040041541</v>
       </c>
       <c r="D85">
-        <v>0.01749815190300469</v>
+        <v>0.0217399147929696</v>
       </c>
       <c r="E85">
-        <v>0.06267362526760217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0393728145270085</v>
+      </c>
+      <c r="F85">
+        <v>-0.006765159056395146</v>
+      </c>
+      <c r="G85">
+        <v>0.01029149293343495</v>
+      </c>
+      <c r="H85">
+        <v>-0.2015153528633186</v>
+      </c>
+      <c r="I85">
+        <v>0.01075447018307852</v>
+      </c>
+      <c r="J85">
+        <v>-0.06891458817467992</v>
+      </c>
+      <c r="K85">
+        <v>0.02446564668148754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07763313669344407</v>
+        <v>0.06776813597296662</v>
       </c>
       <c r="C86">
-        <v>-0.0682200755226617</v>
+        <v>-0.03527354955749708</v>
       </c>
       <c r="D86">
-        <v>0.01537273032176735</v>
+        <v>-0.01458380780573541</v>
       </c>
       <c r="E86">
-        <v>0.02180957747925105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03115741210752483</v>
+      </c>
+      <c r="F86">
+        <v>-0.03004417015089816</v>
+      </c>
+      <c r="G86">
+        <v>0.004185039191308948</v>
+      </c>
+      <c r="H86">
+        <v>0.03705617681974665</v>
+      </c>
+      <c r="I86">
+        <v>0.06397621119716888</v>
+      </c>
+      <c r="J86">
+        <v>-0.02482294108613235</v>
+      </c>
+      <c r="K86">
+        <v>-0.09730444040280013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1332031049677649</v>
+        <v>0.1312199469794777</v>
       </c>
       <c r="C87">
-        <v>-0.0721848893294133</v>
+        <v>-0.07282135107210611</v>
       </c>
       <c r="D87">
-        <v>0.06279353660889615</v>
+        <v>0.01208137482631901</v>
       </c>
       <c r="E87">
-        <v>0.03954499887540186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.02504195855092815</v>
+      </c>
+      <c r="F87">
+        <v>-0.09417565076258119</v>
+      </c>
+      <c r="G87">
+        <v>0.1912381102358548</v>
+      </c>
+      <c r="H87">
+        <v>0.05776312266689199</v>
+      </c>
+      <c r="I87">
+        <v>0.04172649204929484</v>
+      </c>
+      <c r="J87">
+        <v>0.03976276084920444</v>
+      </c>
+      <c r="K87">
+        <v>-0.0243069997930136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06015126057234303</v>
+        <v>0.06521426249640203</v>
       </c>
       <c r="C88">
-        <v>-0.02200176768817927</v>
+        <v>-0.03698999627826062</v>
       </c>
       <c r="D88">
-        <v>0.01587970744009195</v>
+        <v>0.02908266523144676</v>
       </c>
       <c r="E88">
-        <v>0.01085393632154695</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.009673356736249491</v>
+      </c>
+      <c r="F88">
+        <v>0.003418779074846474</v>
+      </c>
+      <c r="G88">
+        <v>0.01139701594044407</v>
+      </c>
+      <c r="H88">
+        <v>-0.01391544012625507</v>
+      </c>
+      <c r="I88">
+        <v>-0.04433318373411364</v>
+      </c>
+      <c r="J88">
+        <v>0.01616834469375186</v>
+      </c>
+      <c r="K88">
+        <v>-0.02230195021713355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.0756216536257704</v>
+        <v>0.1383854313280794</v>
       </c>
       <c r="C89">
-        <v>0.3255052256387821</v>
+        <v>0.3776870716612516</v>
       </c>
       <c r="D89">
-        <v>-0.01744781021623968</v>
+        <v>0.0009086174693152044</v>
       </c>
       <c r="E89">
-        <v>0.1085062050637813</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08647560508365398</v>
+      </c>
+      <c r="F89">
+        <v>-0.02553256013790941</v>
+      </c>
+      <c r="G89">
+        <v>-0.01833324465379123</v>
+      </c>
+      <c r="H89">
+        <v>0.01489492223333477</v>
+      </c>
+      <c r="I89">
+        <v>-0.07193034369618977</v>
+      </c>
+      <c r="J89">
+        <v>0.07085503404492155</v>
+      </c>
+      <c r="K89">
+        <v>0.01546716242562179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06224391197221722</v>
+        <v>0.0983226135166942</v>
       </c>
       <c r="C90">
-        <v>0.2899503183972897</v>
+        <v>0.2842601052065914</v>
       </c>
       <c r="D90">
-        <v>-0.03931071600870212</v>
+        <v>-0.02889333050362779</v>
       </c>
       <c r="E90">
-        <v>0.05482239731107758</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.03140689688945001</v>
+      </c>
+      <c r="F90">
+        <v>-0.01112425728563491</v>
+      </c>
+      <c r="G90">
+        <v>0.0316493376622481</v>
+      </c>
+      <c r="H90">
+        <v>0.04378189120361362</v>
+      </c>
+      <c r="I90">
+        <v>-0.06559624097472116</v>
+      </c>
+      <c r="J90">
+        <v>0.04131167123573141</v>
+      </c>
+      <c r="K90">
+        <v>0.02344633007729697</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1031253311368495</v>
+        <v>0.09015624632886123</v>
       </c>
       <c r="C91">
-        <v>-0.009500884781396927</v>
+        <v>-0.03511332312274322</v>
       </c>
       <c r="D91">
-        <v>0.02670690699312266</v>
+        <v>0.008345604407420515</v>
       </c>
       <c r="E91">
-        <v>0.01313276229677874</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.001264695497153585</v>
+      </c>
+      <c r="F91">
+        <v>0.00684462278284534</v>
+      </c>
+      <c r="G91">
+        <v>-0.02168846767339203</v>
+      </c>
+      <c r="H91">
+        <v>-0.08989059863727729</v>
+      </c>
+      <c r="I91">
+        <v>0.01287633972105707</v>
+      </c>
+      <c r="J91">
+        <v>-0.008870903673645314</v>
+      </c>
+      <c r="K91">
+        <v>0.022842433614869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.04721700972421338</v>
+        <v>0.09819879659340976</v>
       </c>
       <c r="C92">
-        <v>0.3410105508596413</v>
+        <v>0.3399480757531245</v>
       </c>
       <c r="D92">
-        <v>0.00295538693595823</v>
+        <v>0.005087886638502635</v>
       </c>
       <c r="E92">
-        <v>0.09032496040578349</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.04315038715469971</v>
+      </c>
+      <c r="F92">
+        <v>-0.04136660082273658</v>
+      </c>
+      <c r="G92">
+        <v>-0.01923867415015472</v>
+      </c>
+      <c r="H92">
+        <v>-0.01015804873299282</v>
+      </c>
+      <c r="I92">
+        <v>-0.03008668424383608</v>
+      </c>
+      <c r="J92">
+        <v>0.0259178594130963</v>
+      </c>
+      <c r="K92">
+        <v>0.003960397248875372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04344522208898362</v>
+        <v>0.09935859795980596</v>
       </c>
       <c r="C93">
-        <v>0.3002490591145307</v>
+        <v>0.3179847997183358</v>
       </c>
       <c r="D93">
-        <v>-0.01809679080628671</v>
+        <v>0.001226677761234605</v>
       </c>
       <c r="E93">
-        <v>0.05599731459324787</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02009846096632717</v>
+      </c>
+      <c r="F93">
+        <v>-0.001903179837004806</v>
+      </c>
+      <c r="G93">
+        <v>-0.005487086813129851</v>
+      </c>
+      <c r="H93">
+        <v>0.01172721057601129</v>
+      </c>
+      <c r="I93">
+        <v>-0.001291173477013063</v>
+      </c>
+      <c r="J93">
+        <v>-0.008366866638232474</v>
+      </c>
+      <c r="K93">
+        <v>-0.03340778290681913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.128027412080574</v>
+        <v>0.1224718517209979</v>
       </c>
       <c r="C94">
-        <v>-0.0528772465356583</v>
+        <v>-0.05450566522425073</v>
       </c>
       <c r="D94">
-        <v>0.02628830481979194</v>
+        <v>0.009780022175088715</v>
       </c>
       <c r="E94">
-        <v>0.03766923579881441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.02911809124661311</v>
+      </c>
+      <c r="F94">
+        <v>-0.006601638039909147</v>
+      </c>
+      <c r="G94">
+        <v>-0.05327453597214449</v>
+      </c>
+      <c r="H94">
+        <v>-0.118594901775459</v>
+      </c>
+      <c r="I94">
+        <v>0.01041370976278726</v>
+      </c>
+      <c r="J94">
+        <v>-0.01788126253916348</v>
+      </c>
+      <c r="K94">
+        <v>0.02042910734360091</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1315292317696441</v>
+        <v>0.140771125959171</v>
       </c>
       <c r="C95">
-        <v>-0.07114086787206886</v>
+        <v>-0.06260054254168514</v>
       </c>
       <c r="D95">
-        <v>0.06982821011277021</v>
+        <v>0.03721946890823514</v>
       </c>
       <c r="E95">
-        <v>0.06434329458576123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.03962403879513194</v>
+      </c>
+      <c r="F95">
+        <v>-0.04504250147690905</v>
+      </c>
+      <c r="G95">
+        <v>0.04049905496914426</v>
+      </c>
+      <c r="H95">
+        <v>0.1535820031613284</v>
+      </c>
+      <c r="I95">
+        <v>-0.005752111231737362</v>
+      </c>
+      <c r="J95">
+        <v>-0.0099094536571538</v>
+      </c>
+      <c r="K95">
+        <v>0.01500357497802788</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2471533302650885</v>
+        <v>0.1865269329997435</v>
       </c>
       <c r="C97">
-        <v>0.1447329446015302</v>
+        <v>0.03550435674960894</v>
       </c>
       <c r="D97">
-        <v>0.04523956936308159</v>
+        <v>-0.273033938347386</v>
       </c>
       <c r="E97">
-        <v>-0.8896738185613061</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.8993897649927829</v>
+      </c>
+      <c r="F97">
+        <v>-0.03774495315901656</v>
+      </c>
+      <c r="G97">
+        <v>0.02864498742001443</v>
+      </c>
+      <c r="H97">
+        <v>0.05315527098982441</v>
+      </c>
+      <c r="I97">
+        <v>-0.04665496833427681</v>
+      </c>
+      <c r="J97">
+        <v>0.03412861884704451</v>
+      </c>
+      <c r="K97">
+        <v>0.05499167726570132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2820447505964383</v>
+        <v>0.2861139236259183</v>
       </c>
       <c r="C98">
-        <v>-0.03283305905995696</v>
+        <v>-0.08849302399577787</v>
       </c>
       <c r="D98">
-        <v>-0.01245707520346708</v>
+        <v>0.0832527600778859</v>
       </c>
       <c r="E98">
-        <v>0.04495436351136318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04164551788741309</v>
+      </c>
+      <c r="F98">
+        <v>0.3133659948149141</v>
+      </c>
+      <c r="G98">
+        <v>-0.311826814973716</v>
+      </c>
+      <c r="H98">
+        <v>0.2503720832531791</v>
+      </c>
+      <c r="I98">
+        <v>0.1812711591874547</v>
+      </c>
+      <c r="J98">
+        <v>0.1185811364937333</v>
+      </c>
+      <c r="K98">
+        <v>-0.6117136985179805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2334047345890506</v>
+        <v>0.1546958803788822</v>
       </c>
       <c r="C99">
-        <v>-0.07456984913415733</v>
+        <v>-0.06741901496417445</v>
       </c>
       <c r="D99">
-        <v>-0.9279332515888048</v>
+        <v>-0.752477050582942</v>
       </c>
       <c r="E99">
-        <v>-0.01459422419427929</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.248117297111181</v>
+      </c>
+      <c r="F99">
+        <v>0.4865330302936704</v>
+      </c>
+      <c r="G99">
+        <v>0.04299809441419963</v>
+      </c>
+      <c r="H99">
+        <v>-0.1084308384156458</v>
+      </c>
+      <c r="I99">
+        <v>-0.04328046730962849</v>
+      </c>
+      <c r="J99">
+        <v>-0.1078460222771314</v>
+      </c>
+      <c r="K99">
+        <v>0.02172070638628861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.0602948535629923</v>
+        <v>0.05580372516606918</v>
       </c>
       <c r="C101">
-        <v>0.0004680763510330851</v>
+        <v>-0.01151839118547243</v>
       </c>
       <c r="D101">
-        <v>0.03130078123879228</v>
+        <v>0.02260433599108451</v>
       </c>
       <c r="E101">
-        <v>0.02435811270449467</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01710002690492887</v>
+      </c>
+      <c r="F101">
+        <v>-0.0351789679726609</v>
+      </c>
+      <c r="G101">
+        <v>0.02780751458197979</v>
+      </c>
+      <c r="H101">
+        <v>-0.05456896940184627</v>
+      </c>
+      <c r="I101">
+        <v>-0.05495360148856428</v>
+      </c>
+      <c r="J101">
+        <v>-0.02040691823265561</v>
+      </c>
+      <c r="K101">
+        <v>-0.03491436912158491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
